--- a/codigos/preparacao_dados/analise_agrupadas/indicadores_economicos.xlsx
+++ b/codigos/preparacao_dados/analise_agrupadas/indicadores_economicos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TCC\tcc-main\codigos\preparacao_dados\analise_agrupadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C920F5B-81BA-4FF6-9990-93B1E19E5DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665EBBE2-1ECD-494A-9C51-B8C94DAFCD46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B367A71-A78C-4A6D-B0CC-46A3CC532EDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B367A71-A78C-4A6D-B0CC-46A3CC532EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -96,11 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,18 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B514B85E-1AE9-496F-9D0B-DC74D4D983BE}">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P73"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4:T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -459,28 +462,35 @@
       <c r="E2" s="2">
         <v>3.383</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G33" si="0">C2/100</f>
+      <c r="F2" s="4">
+        <v>4113</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H33" si="0">C2/100</f>
         <v>3.8E-3</v>
       </c>
-      <c r="H2">
-        <f>1+G2</f>
+      <c r="I2">
+        <f>1+H2</f>
         <v>1.0038</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>D2/100</f>
         <v>1.0899999999999999E-4</v>
       </c>
-      <c r="L2">
-        <f>1+K2</f>
+      <c r="M2">
+        <f>1+L2</f>
         <v>1.0001089999999999</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <f>E2</f>
         <v>3.383</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S2" s="2">
+        <f>F2</f>
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -496,28 +506,35 @@
       <c r="E3" s="2">
         <v>3.2033999999999998</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="4">
+        <v>4043</v>
+      </c>
+      <c r="H3">
         <f t="shared" si="0"/>
         <v>3.3E-3</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">1+G3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">1+H3</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K5" si="2">D3/100</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="2">D3/100</f>
         <v>8.7000000000000001E-5</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="3">1+K3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="3">1+L3</f>
         <v>1.0000869999999999</v>
       </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O5" si="4">E3</f>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P5" si="4">E3</f>
         <v>3.2033999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S5" si="5">F3</f>
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -533,40 +550,51 @@
       <c r="E4" s="2">
         <v>3.0779000000000001</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="4">
+        <v>4048</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>1.0024999999999999</v>
       </c>
-      <c r="I4">
-        <f>(H2*H3*H4)-1</f>
+      <c r="J4">
+        <f>(I2*I3*I4)-1</f>
         <v>9.6303213499999707E-3</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>1.05E-4</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="3"/>
         <v>1.000105</v>
       </c>
-      <c r="M4">
-        <f>(L2*L3*L4)-1</f>
+      <c r="N4">
+        <f>(M2*M3*M4)-1</f>
         <v>3.0103006399562204E-4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <f t="shared" si="4"/>
         <v>3.0779000000000001</v>
       </c>
-      <c r="P4" s="2">
-        <f>AVERAGE(O2:O4)</f>
+      <c r="Q4" s="2">
+        <f>AVERAGE(P2:P4)</f>
         <v>3.2214333333333331</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S4" s="2">
+        <f t="shared" si="5"/>
+        <v>4048</v>
+      </c>
+      <c r="T4" s="2">
+        <f>AVERAGE(S2:S4)</f>
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -582,28 +610,35 @@
       <c r="E5" s="2">
         <v>3.1629</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="4">
+        <v>4043</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>1.0014000000000001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>7.9000000000000009E-5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>1.0000789999999999</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <f t="shared" si="4"/>
         <v>3.1629</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S5" s="2">
+        <f t="shared" si="5"/>
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -619,28 +654,35 @@
       <c r="E6" s="2">
         <v>3.1269</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="4">
+        <v>4047</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>1.0031000000000001</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K69" si="5">D6/100</f>
+      <c r="L6">
+        <f t="shared" ref="L6:L69" si="6">D6/100</f>
         <v>9.2999999999999997E-5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="3"/>
         <v>1.0000929999999999</v>
       </c>
-      <c r="O6" s="2">
-        <f t="shared" ref="O6:O69" si="6">E6</f>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6:P69" si="7">E6</f>
         <v>3.1269</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S6" s="2">
+        <f t="shared" ref="S6:S69" si="8">F6</f>
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -656,40 +698,51 @@
       <c r="E7" s="2">
         <v>3.1011000000000002</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="4">
+        <v>4119</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>-2.3E-3</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>0.99770000000000003</v>
       </c>
-      <c r="I7">
-        <f t="shared" ref="I7" si="7">(H5*H6*H7)-1</f>
+      <c r="J7">
+        <f t="shared" ref="J7" si="9">(I5*I6*I7)-1</f>
         <v>2.1939800180001967E-3</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
+      <c r="L7">
+        <f t="shared" si="6"/>
         <v>8.099999999999999E-5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="3"/>
         <v>1.000081</v>
       </c>
-      <c r="M7">
-        <f t="shared" ref="M7" si="8">(L5*L6*L7)-1</f>
+      <c r="N7">
+        <f t="shared" ref="N7" si="10">(M5*M6*M7)-1</f>
         <v>2.5302127959481169E-4</v>
       </c>
-      <c r="O7" s="2">
-        <f t="shared" si="6"/>
+      <c r="P7" s="2">
+        <f t="shared" si="7"/>
         <v>3.1011000000000002</v>
       </c>
-      <c r="P7" s="2">
-        <f t="shared" ref="P7" si="9">AVERAGE(O5:O7)</f>
+      <c r="Q7" s="2">
+        <f t="shared" ref="Q7" si="11">AVERAGE(P5:P7)</f>
         <v>3.1303000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S7" s="2">
+        <f t="shared" si="8"/>
+        <v>4119</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7" si="12">AVERAGE(S5:S7)</f>
+        <v>4069.6666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -705,28 +758,35 @@
       <c r="E8" s="2">
         <v>3.2835999999999999</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="4">
+        <v>4163</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>1.0024</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
+      <c r="L8">
+        <f t="shared" si="6"/>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="3"/>
         <v>1.0000800000000001</v>
       </c>
-      <c r="O8" s="2">
-        <f t="shared" si="6"/>
+      <c r="P8" s="2">
+        <f t="shared" si="7"/>
         <v>3.2835999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S8" s="2">
+        <f t="shared" si="8"/>
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -742,28 +802,35 @@
       <c r="E9" s="2">
         <v>3.1899000000000002</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="4">
+        <v>4132</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>1.9E-3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>1.0019</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
+      <c r="L9">
+        <f t="shared" si="6"/>
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="3"/>
         <v>1.0000800000000001</v>
       </c>
-      <c r="O9" s="2">
-        <f t="shared" si="6"/>
+      <c r="P9" s="2">
+        <f t="shared" si="7"/>
         <v>3.1899000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S9" s="2">
+        <f t="shared" si="8"/>
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -779,40 +846,51 @@
       <c r="E10" s="2">
         <v>3.1976</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="4">
+        <v>4163</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>1.0016</v>
       </c>
-      <c r="I10">
-        <f t="shared" ref="I10" si="10">(H8*H9*H10)-1</f>
+      <c r="J10">
+        <f t="shared" ref="J10" si="13">(I8*I9*I10)-1</f>
         <v>5.9114472960000164E-3</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
+      <c r="L10">
+        <f t="shared" si="6"/>
         <v>6.3999999999999997E-5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="3"/>
         <v>1.0000640000000001</v>
       </c>
-      <c r="M10">
-        <f t="shared" ref="M10" si="11">(L8*L9*L10)-1</f>
+      <c r="N10">
+        <f t="shared" ref="N10" si="14">(M8*M9*M10)-1</f>
         <v>2.2401664040994085E-4</v>
       </c>
-      <c r="O10" s="2">
-        <f t="shared" si="6"/>
+      <c r="P10" s="2">
+        <f t="shared" si="7"/>
         <v>3.1976</v>
       </c>
-      <c r="P10" s="2">
-        <f t="shared" ref="P10" si="12">AVERAGE(O8:O10)</f>
+      <c r="Q10" s="2">
+        <f t="shared" ref="Q10" si="15">AVERAGE(P8:P10)</f>
         <v>3.2236999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S10" s="2">
+        <f t="shared" si="8"/>
+        <v>4163</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" ref="T10" si="16">AVERAGE(S8:S10)</f>
+        <v>4152.666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -828,28 +906,35 @@
       <c r="E11" s="2">
         <v>3.1255000000000002</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="4">
+        <v>4232</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>1.0042</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
+      <c r="L11">
+        <f t="shared" si="6"/>
         <v>6.3999999999999997E-5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="3"/>
         <v>1.0000640000000001</v>
       </c>
-      <c r="O11" s="2">
-        <f t="shared" si="6"/>
+      <c r="P11" s="2">
+        <f t="shared" si="7"/>
         <v>3.1255000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S11" s="2">
+        <f t="shared" si="8"/>
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -865,28 +950,35 @@
       <c r="E12" s="2">
         <v>3.1572</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="4">
+        <v>4330</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>1.0027999999999999</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
+      <c r="L12">
+        <f t="shared" si="6"/>
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>1.000057</v>
       </c>
-      <c r="O12" s="2">
-        <f t="shared" si="6"/>
+      <c r="P12" s="2">
+        <f t="shared" si="7"/>
         <v>3.1572</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S12" s="2">
+        <f t="shared" si="8"/>
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -902,40 +994,51 @@
       <c r="E13" s="2">
         <v>3.2833999999999999</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="4">
+        <v>4335</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>1.0044</v>
       </c>
-      <c r="I13">
-        <f t="shared" ref="I13" si="13">(H11*H12*H13)-1</f>
+      <c r="J13">
+        <f t="shared" ref="J13" si="17">(I11*I12*I13)-1</f>
         <v>1.1442611743999853E-2</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
+      <c r="L13">
+        <f t="shared" si="6"/>
         <v>5.4000000000000005E-5</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>1.000054</v>
       </c>
-      <c r="M13">
-        <f t="shared" ref="M13" si="14">(L11*L12*L13)-1</f>
+      <c r="N13">
+        <f t="shared" ref="N13" si="18">(M11*M12*M13)-1</f>
         <v>1.7501018219689968E-4</v>
       </c>
-      <c r="O13" s="2">
-        <f t="shared" si="6"/>
+      <c r="P13" s="2">
+        <f t="shared" si="7"/>
         <v>3.2833999999999999</v>
       </c>
-      <c r="P13" s="2">
-        <f t="shared" ref="P13" si="15">AVERAGE(O11:O13)</f>
+      <c r="Q13" s="2">
+        <f t="shared" ref="Q13" si="19">AVERAGE(P11:P13)</f>
         <v>3.1887000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S13" s="2">
+        <f t="shared" si="8"/>
+        <v>4335</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" ref="T13" si="20">AVERAGE(S11:S13)</f>
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -951,28 +1054,35 @@
       <c r="E14" s="2">
         <v>3.3182</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="4">
+        <v>4292</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>1.0028999999999999</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
+      <c r="L14">
+        <f t="shared" si="6"/>
         <v>5.7999999999999994E-5</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>1.0000579999999999</v>
       </c>
-      <c r="O14" s="2">
-        <f t="shared" si="6"/>
+      <c r="P14" s="2">
+        <f t="shared" si="7"/>
         <v>3.3182</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S14" s="2">
+        <f t="shared" si="8"/>
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -988,28 +1098,35 @@
       <c r="E15" s="2">
         <v>3.1962999999999999</v>
       </c>
-      <c r="G15">
+      <c r="F15" s="4">
+        <v>4277</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>1.0032000000000001</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
+      <c r="L15">
+        <f t="shared" si="6"/>
         <v>4.7000000000000004E-5</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f t="shared" si="3"/>
         <v>1.0000469999999999</v>
       </c>
-      <c r="O15" s="2">
-        <f t="shared" si="6"/>
+      <c r="P15" s="2">
+        <f t="shared" si="7"/>
         <v>3.1962999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S15" s="2">
+        <f t="shared" si="8"/>
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -1025,40 +1142,51 @@
       <c r="E16" s="2">
         <v>3.2208000000000001</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="4">
+        <v>4287</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>1.0008999999999999</v>
       </c>
-      <c r="I16">
-        <f t="shared" ref="I16" si="16">(H14*H15*H16)-1</f>
+      <c r="J16">
+        <f t="shared" ref="J16" si="21">(I14*I15*I16)-1</f>
         <v>7.0147783519998175E-3</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
+      <c r="L16">
+        <f t="shared" si="6"/>
         <v>5.3000000000000001E-5</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f t="shared" si="3"/>
         <v>1.0000530000000001</v>
       </c>
-      <c r="M16">
-        <f t="shared" ref="M16" si="17">(L14*L15*L16)-1</f>
+      <c r="N16">
+        <f t="shared" ref="N16" si="22">(M14*M15*M16)-1</f>
         <v>1.5800829114454018E-4</v>
       </c>
-      <c r="O16" s="2">
-        <f t="shared" si="6"/>
+      <c r="P16" s="2">
+        <f t="shared" si="7"/>
         <v>3.2208000000000001</v>
       </c>
-      <c r="P16" s="2">
-        <f t="shared" ref="P16" si="18">AVERAGE(O14:O16)</f>
+      <c r="Q16" s="2">
+        <f t="shared" ref="Q16" si="23">AVERAGE(P14:P16)</f>
         <v>3.2451000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S16" s="2">
+        <f t="shared" si="8"/>
+        <v>4287</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" ref="T16" si="24">AVERAGE(S14:S16)</f>
+        <v>4285.333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -1074,28 +1202,35 @@
       <c r="E17" s="2">
         <v>3.2858999999999998</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="4">
+        <v>4281</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>1.0022</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="5"/>
+      <c r="L17">
+        <f t="shared" si="6"/>
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f t="shared" si="3"/>
         <v>1.0000519999999999</v>
       </c>
-      <c r="O17" s="2">
-        <f t="shared" si="6"/>
+      <c r="P17" s="2">
+        <f t="shared" si="7"/>
         <v>3.2858999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S17" s="2">
+        <f t="shared" si="8"/>
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -1111,28 +1246,35 @@
       <c r="E18" s="2">
         <v>3.4104999999999999</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="4">
+        <v>4271</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>1.004</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="5"/>
+      <c r="L18">
+        <f t="shared" si="6"/>
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f t="shared" si="3"/>
         <v>1.0000519999999999</v>
       </c>
-      <c r="O18" s="2">
-        <f t="shared" si="6"/>
+      <c r="P18" s="2">
+        <f t="shared" si="7"/>
         <v>3.4104999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S18" s="2">
+        <f t="shared" si="8"/>
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -1148,40 +1290,51 @@
       <c r="E19" s="2">
         <v>3.6753</v>
       </c>
-      <c r="G19">
+      <c r="F19" s="4">
+        <v>4284</v>
+      </c>
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>1.26E-2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>1.0125999999999999</v>
       </c>
-      <c r="I19">
-        <f t="shared" ref="I19" si="19">(H17*H18*H19)-1</f>
+      <c r="J19">
+        <f t="shared" ref="J19" si="25">(I17*I18*I19)-1</f>
         <v>1.8887030879999989E-2</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="5"/>
+      <c r="L19">
+        <f t="shared" si="6"/>
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f t="shared" si="3"/>
         <v>1.0000519999999999</v>
       </c>
-      <c r="M19">
-        <f t="shared" ref="M19" si="20">(L17*L18*L19)-1</f>
+      <c r="N19">
+        <f t="shared" ref="N19" si="26">(M17*M18*M19)-1</f>
         <v>1.5600811214033783E-4</v>
       </c>
-      <c r="O19" s="2">
-        <f t="shared" si="6"/>
+      <c r="P19" s="2">
+        <f t="shared" si="7"/>
         <v>3.6753</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" ref="P19" si="21">AVERAGE(O17:O19)</f>
+      <c r="Q19" s="2">
+        <f t="shared" ref="Q19" si="27">AVERAGE(P17:P19)</f>
         <v>3.4572333333333334</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S19" s="2">
+        <f t="shared" si="8"/>
+        <v>4284</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" ref="T19" si="28">AVERAGE(S17:S19)</f>
+        <v>4278.666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1197,28 +1350,35 @@
       <c r="E20" s="2">
         <v>3.7738</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="4">
+        <v>4309</v>
+      </c>
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>3.3E-3</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>1.0033000000000001</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="5"/>
+      <c r="L20">
+        <f t="shared" si="6"/>
         <v>5.4000000000000005E-5</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="3"/>
         <v>1.000054</v>
       </c>
-      <c r="O20" s="2">
-        <f t="shared" si="6"/>
+      <c r="P20" s="2">
+        <f t="shared" si="7"/>
         <v>3.7738</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S20" s="2">
+        <f t="shared" si="8"/>
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1234,28 +1394,35 @@
       <c r="E21" s="2">
         <v>3.8744999999999998</v>
       </c>
-      <c r="G21">
+      <c r="F21" s="4">
+        <v>4336</v>
+      </c>
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>-8.9999999999999998E-4</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>0.99909999999999999</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="5"/>
+      <c r="L21">
+        <f t="shared" si="6"/>
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="3"/>
         <v>1.000057</v>
       </c>
-      <c r="O21" s="2">
-        <f t="shared" si="6"/>
+      <c r="P21" s="2">
+        <f t="shared" si="7"/>
         <v>3.8744999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S21" s="2">
+        <f t="shared" si="8"/>
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1271,40 +1438,51 @@
       <c r="E22" s="2">
         <v>3.9134000000000002</v>
       </c>
-      <c r="G22">
+      <c r="F22" s="4">
+        <v>4341</v>
+      </c>
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>1.0047999999999999</v>
       </c>
-      <c r="I22">
-        <f t="shared" ref="I22" si="22">(H20*H21*H22)-1</f>
+      <c r="J22">
+        <f t="shared" ref="J22" si="29">(I20*I21*I22)-1</f>
         <v>7.2085357439999331E-3</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="5"/>
+      <c r="L22">
+        <f t="shared" si="6"/>
         <v>4.7000000000000004E-5</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f t="shared" si="3"/>
         <v>1.0000469999999999</v>
       </c>
-      <c r="M22">
-        <f t="shared" ref="M22" si="23">(L20*L21*L22)-1</f>
+      <c r="N22">
+        <f t="shared" ref="N22" si="30">(M20*M21*M22)-1</f>
         <v>1.5800829514467374E-4</v>
       </c>
-      <c r="O22" s="2">
-        <f t="shared" si="6"/>
+      <c r="P22" s="2">
+        <f t="shared" si="7"/>
         <v>3.9134000000000002</v>
       </c>
-      <c r="P22" s="2">
-        <f t="shared" ref="P22" si="24">AVERAGE(O20:O22)</f>
+      <c r="Q22" s="2">
+        <f t="shared" ref="Q22" si="31">AVERAGE(P20:P22)</f>
         <v>3.8538999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S22" s="2">
+        <f t="shared" si="8"/>
+        <v>4341</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" ref="T22" si="32">AVERAGE(S20:S22)</f>
+        <v>4328.666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1320,28 +1498,35 @@
       <c r="E23" s="2">
         <v>4.1879</v>
       </c>
-      <c r="G23">
+      <c r="F23" s="4">
+        <v>4430</v>
+      </c>
+      <c r="H23">
         <f t="shared" si="0"/>
         <v>4.5000000000000005E-3</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>1.0044999999999999</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="5"/>
+      <c r="L23">
+        <f t="shared" si="6"/>
         <v>5.4000000000000005E-5</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f t="shared" si="3"/>
         <v>1.000054</v>
       </c>
-      <c r="O23" s="2">
-        <f t="shared" si="6"/>
+      <c r="P23" s="2">
+        <f t="shared" si="7"/>
         <v>4.1879</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S23" s="2">
+        <f t="shared" si="8"/>
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -1357,28 +1542,35 @@
       <c r="E24" s="2">
         <v>3.7332000000000001</v>
       </c>
-      <c r="G24">
+      <c r="F24" s="4">
+        <v>4393</v>
+      </c>
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>-2.0999999999999999E-3</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>0.99790000000000001</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="5"/>
+      <c r="L24">
+        <f t="shared" si="6"/>
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f t="shared" si="3"/>
         <v>1.000049</v>
       </c>
-      <c r="O24" s="2">
-        <f t="shared" si="6"/>
+      <c r="P24" s="2">
+        <f t="shared" si="7"/>
         <v>3.7332000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S24" s="2">
+        <f t="shared" si="8"/>
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -1394,40 +1586,51 @@
       <c r="E25" s="2">
         <v>3.7924000000000002</v>
       </c>
-      <c r="G25">
+      <c r="F25" s="4">
+        <v>4450</v>
+      </c>
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>1.5E-3</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>1.0015000000000001</v>
       </c>
-      <c r="I25">
-        <f t="shared" ref="I25" si="25">(H23*H24*H25)-1</f>
+      <c r="J25">
+        <f t="shared" ref="J25" si="33">(I23*I24*I25)-1</f>
         <v>3.894135824999978E-3</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="5"/>
+      <c r="L25">
+        <f t="shared" si="6"/>
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="3"/>
         <v>1.000049</v>
       </c>
-      <c r="M25">
-        <f t="shared" ref="M25" si="26">(L23*L24*L25)-1</f>
+      <c r="N25">
+        <f t="shared" ref="N25" si="34">(M23*M24*M25)-1</f>
         <v>1.5200769312961881E-4</v>
       </c>
-      <c r="O25" s="2">
-        <f t="shared" si="6"/>
+      <c r="P25" s="2">
+        <f t="shared" si="7"/>
         <v>3.7924000000000002</v>
       </c>
-      <c r="P25" s="2">
-        <f t="shared" ref="P25" si="27">AVERAGE(O23:O25)</f>
+      <c r="Q25" s="2">
+        <f t="shared" ref="Q25" si="35">AVERAGE(P23:P25)</f>
         <v>3.9045000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S25" s="2">
+        <f t="shared" si="8"/>
+        <v>4450</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" ref="T25" si="36">AVERAGE(S23:S25)</f>
+        <v>4424.333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -1443,28 +1646,35 @@
       <c r="E26" s="2">
         <v>3.9089999999999998</v>
       </c>
-      <c r="G26">
+      <c r="F26" s="4">
+        <v>4437</v>
+      </c>
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>1.0032000000000001</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="5"/>
+      <c r="L26">
+        <f t="shared" si="6"/>
         <v>5.4000000000000005E-5</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="3"/>
         <v>1.000054</v>
       </c>
-      <c r="O26" s="2">
-        <f t="shared" si="6"/>
+      <c r="P26" s="2">
+        <f t="shared" si="7"/>
         <v>3.9089999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S26" s="2">
+        <f t="shared" si="8"/>
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -1480,28 +1690,35 @@
       <c r="E27" s="2">
         <v>3.7048999999999999</v>
       </c>
-      <c r="G27">
+      <c r="F27" s="4">
+        <v>4454</v>
+      </c>
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>4.3E-3</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>1.0043</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="5"/>
+      <c r="L27">
+        <f t="shared" si="6"/>
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="3"/>
         <v>1.000049</v>
       </c>
-      <c r="O27" s="2">
-        <f t="shared" si="6"/>
+      <c r="P27" s="2">
+        <f t="shared" si="7"/>
         <v>3.7048999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S27" s="2">
+        <f t="shared" si="8"/>
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -1517,40 +1734,51 @@
       <c r="E28" s="2">
         <v>3.7155</v>
       </c>
-      <c r="G28">
+      <c r="F28" s="4">
+        <v>4367</v>
+      </c>
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>1.0075000000000001</v>
       </c>
-      <c r="I28">
-        <f t="shared" ref="I28" si="28">(H26*H27*H28)-1</f>
+      <c r="J28">
+        <f t="shared" ref="J28" si="37">(I26*I27*I28)-1</f>
         <v>1.5070113200000179E-2</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
+      <c r="L28">
+        <f t="shared" si="6"/>
         <v>4.7000000000000004E-5</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="3"/>
         <v>1.0000469999999999</v>
       </c>
-      <c r="M28">
-        <f t="shared" ref="M28" si="29">(L26*L27*L28)-1</f>
+      <c r="N28">
+        <f t="shared" ref="N28" si="38">(M26*M27*M28)-1</f>
         <v>1.5000748712434842E-4</v>
       </c>
-      <c r="O28" s="2">
-        <f t="shared" si="6"/>
+      <c r="P28" s="2">
+        <f t="shared" si="7"/>
         <v>3.7155</v>
       </c>
-      <c r="P28" s="2">
-        <f t="shared" ref="P28" si="30">AVERAGE(O26:O28)</f>
+      <c r="Q28" s="2">
+        <f t="shared" ref="Q28" si="39">AVERAGE(P26:P28)</f>
         <v>3.7764666666666664</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S28" s="2">
+        <f t="shared" si="8"/>
+        <v>4367</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" ref="T28" si="40">AVERAGE(S26:S28)</f>
+        <v>4419.333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -1566,28 +1794,35 @@
       <c r="E29" s="2">
         <v>3.8344</v>
       </c>
-      <c r="G29">
+      <c r="F29" s="4">
+        <v>4317</v>
+      </c>
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>5.6999999999999993E-3</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>1.0057</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="5"/>
+      <c r="L29">
+        <f t="shared" si="6"/>
         <v>5.1999999999999997E-5</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f t="shared" si="3"/>
         <v>1.0000519999999999</v>
       </c>
-      <c r="O29" s="2">
-        <f t="shared" si="6"/>
+      <c r="P29" s="2">
+        <f t="shared" si="7"/>
         <v>3.8344</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S29" s="2">
+        <f t="shared" si="8"/>
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1603,28 +1838,35 @@
       <c r="E30" s="2">
         <v>3.8730000000000002</v>
       </c>
-      <c r="G30">
+      <c r="F30" s="4">
+        <v>4356</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>1.0013000000000001</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="5"/>
+      <c r="L30">
+        <f t="shared" si="6"/>
         <v>5.4000000000000005E-5</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f t="shared" si="3"/>
         <v>1.000054</v>
       </c>
-      <c r="O30" s="2">
-        <f t="shared" si="6"/>
+      <c r="P30" s="2">
+        <f t="shared" si="7"/>
         <v>3.8730000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S30" s="2">
+        <f t="shared" si="8"/>
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -1640,40 +1882,51 @@
       <c r="E31" s="2">
         <v>4.0030999999999999</v>
       </c>
-      <c r="G31">
+      <c r="F31" s="4">
+        <v>4308</v>
+      </c>
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>1.0001</v>
       </c>
-      <c r="I31">
-        <f t="shared" ref="I31" si="31">(H29*H30*H31)-1</f>
+      <c r="J31">
+        <f t="shared" ref="J31" si="41">(I29*I30*I31)-1</f>
         <v>7.1081107410000399E-3</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="5"/>
+      <c r="L31">
+        <f t="shared" si="6"/>
         <v>4.7000000000000004E-5</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f t="shared" si="3"/>
         <v>1.0000469999999999</v>
       </c>
-      <c r="M31">
-        <f t="shared" ref="M31" si="32">(L29*L30*L31)-1</f>
+      <c r="N31">
+        <f t="shared" ref="N31" si="42">(M29*M30*M31)-1</f>
         <v>1.5300779013194266E-4</v>
       </c>
-      <c r="O31" s="2">
-        <f t="shared" si="6"/>
+      <c r="P31" s="2">
+        <f t="shared" si="7"/>
         <v>4.0030999999999999</v>
       </c>
-      <c r="P31" s="2">
-        <f t="shared" ref="P31" si="33">AVERAGE(O29:O31)</f>
+      <c r="Q31" s="2">
+        <f t="shared" ref="Q31" si="43">AVERAGE(P29:P31)</f>
         <v>3.9034999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S31" s="2">
+        <f t="shared" si="8"/>
+        <v>4308</v>
+      </c>
+      <c r="T31" s="2">
+        <f t="shared" ref="T31" si="44">AVERAGE(S29:S31)</f>
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -1689,28 +1942,35 @@
       <c r="E32" s="2">
         <v>3.8813</v>
       </c>
-      <c r="G32">
+      <c r="F32" s="4">
+        <v>4265</v>
+      </c>
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>1.9E-3</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>1.0019</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="5"/>
+      <c r="L32">
+        <f t="shared" si="6"/>
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f t="shared" si="3"/>
         <v>1.000057</v>
       </c>
-      <c r="O32" s="2">
-        <f t="shared" si="6"/>
+      <c r="P32" s="2">
+        <f t="shared" si="7"/>
         <v>3.8813</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S32" s="2">
+        <f t="shared" si="8"/>
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -1726,28 +1986,35 @@
       <c r="E33" s="2">
         <v>3.7463000000000002</v>
       </c>
-      <c r="G33">
+      <c r="F33" s="4">
+        <v>4284</v>
+      </c>
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>1.0011000000000001</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="5"/>
+      <c r="L33">
+        <f t="shared" si="6"/>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f t="shared" si="3"/>
         <v>1.0000500000000001</v>
       </c>
-      <c r="O33" s="2">
-        <f t="shared" si="6"/>
+      <c r="P33" s="2">
+        <f t="shared" si="7"/>
         <v>3.7463000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S33" s="2">
+        <f t="shared" si="8"/>
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -1763,40 +2030,51 @@
       <c r="E34" s="2">
         <v>4.0187999999999997</v>
       </c>
-      <c r="G34">
-        <f t="shared" ref="G34:G65" si="34">C34/100</f>
+      <c r="F34" s="4">
+        <v>4308</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H65" si="45">C34/100</f>
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>0.99960000000000004</v>
       </c>
-      <c r="I34">
-        <f t="shared" ref="I34" si="35">(H32*H33*H34)-1</f>
+      <c r="J34">
+        <f t="shared" ref="J34" si="46">(I32*I33*I34)-1</f>
         <v>2.6008891640001419E-3</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="5"/>
+      <c r="L34">
+        <f t="shared" si="6"/>
         <v>4.6E-5</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f t="shared" si="3"/>
         <v>1.000046</v>
       </c>
-      <c r="M34">
-        <f t="shared" ref="M34" si="36">(L32*L33*L34)-1</f>
+      <c r="N34">
+        <f t="shared" ref="N34" si="47">(M32*M33*M34)-1</f>
         <v>1.5300777213123062E-4</v>
       </c>
-      <c r="O34" s="2">
-        <f t="shared" si="6"/>
+      <c r="P34" s="2">
+        <f t="shared" si="7"/>
         <v>4.0187999999999997</v>
       </c>
-      <c r="P34" s="2">
-        <f t="shared" ref="P34" si="37">AVERAGE(O32:O34)</f>
+      <c r="Q34" s="2">
+        <f t="shared" ref="Q34" si="48">AVERAGE(P32:P34)</f>
         <v>3.8821333333333334</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S34" s="2">
+        <f t="shared" si="8"/>
+        <v>4308</v>
+      </c>
+      <c r="T34" s="2">
+        <f t="shared" ref="T34" si="49">AVERAGE(S32:S34)</f>
+        <v>4285.666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -1812,28 +2090,35 @@
       <c r="E35" s="2">
         <v>4.0616000000000003</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="34"/>
+      <c r="F35" s="4">
+        <v>4404</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="45"/>
         <v>1E-3</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>1.0009999999999999</v>
       </c>
-      <c r="K35">
-        <f t="shared" si="5"/>
+      <c r="L35">
+        <f t="shared" si="6"/>
         <v>4.7999999999999994E-5</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <f t="shared" si="3"/>
         <v>1.000048</v>
       </c>
-      <c r="O35" s="2">
-        <f t="shared" si="6"/>
+      <c r="P35" s="2">
+        <f t="shared" si="7"/>
         <v>4.0616000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S35" s="2">
+        <f t="shared" si="8"/>
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -1849,28 +2134,35 @@
       <c r="E36" s="2">
         <v>4.1487999999999996</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="34"/>
+      <c r="F36" s="4">
+        <v>4433</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="45"/>
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>1.0051000000000001</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="5"/>
+      <c r="L36">
+        <f t="shared" si="6"/>
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f t="shared" si="3"/>
         <v>1.000038</v>
       </c>
-      <c r="O36" s="2">
-        <f t="shared" si="6"/>
+      <c r="P36" s="2">
+        <f t="shared" si="7"/>
         <v>4.1487999999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S36" s="2">
+        <f t="shared" si="8"/>
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1886,40 +2178,51 @@
       <c r="E37" s="2">
         <v>4.1830999999999996</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="34"/>
+      <c r="F37" s="4">
+        <v>4393</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="45"/>
         <v>1.15E-2</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="1"/>
         <v>1.0115000000000001</v>
       </c>
-      <c r="I37">
-        <f t="shared" ref="I37" si="38">(H35*H36*H37)-1</f>
+      <c r="J37">
+        <f t="shared" ref="J37" si="50">(I35*I36*I37)-1</f>
         <v>1.767530865000011E-2</v>
       </c>
-      <c r="K37">
-        <f t="shared" si="5"/>
+      <c r="L37">
+        <f t="shared" si="6"/>
         <v>3.7000000000000005E-5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <f t="shared" si="3"/>
         <v>1.0000370000000001</v>
       </c>
-      <c r="M37">
-        <f t="shared" ref="M37" si="39">(L35*L36*L37)-1</f>
+      <c r="N37">
+        <f t="shared" ref="N37" si="51">(M35*M36*M37)-1</f>
         <v>1.2300500606765574E-4</v>
       </c>
-      <c r="O37" s="2">
-        <f t="shared" si="6"/>
+      <c r="P37" s="2">
+        <f t="shared" si="7"/>
         <v>4.1830999999999996</v>
       </c>
-      <c r="P37" s="2">
-        <f t="shared" ref="P37" si="40">AVERAGE(O35:O37)</f>
+      <c r="Q37" s="2">
+        <f t="shared" ref="Q37" si="52">AVERAGE(P35:P37)</f>
         <v>4.1311666666666662</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S37" s="2">
+        <f t="shared" si="8"/>
+        <v>4393</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" ref="T37" si="53">AVERAGE(S35:S37)</f>
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2020</v>
       </c>
@@ -1935,28 +2238,35 @@
       <c r="E38" s="2">
         <v>4.0949</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="34"/>
+      <c r="F38" s="4">
+        <v>4366</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="45"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="1"/>
         <v>1.0021</v>
       </c>
-      <c r="K38">
-        <f t="shared" si="5"/>
+      <c r="L38">
+        <f t="shared" si="6"/>
         <v>3.8000000000000002E-5</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <f t="shared" si="3"/>
         <v>1.000038</v>
       </c>
-      <c r="O38" s="2">
-        <f t="shared" si="6"/>
+      <c r="P38" s="2">
+        <f t="shared" si="7"/>
         <v>4.0949</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S38" s="2">
+        <f t="shared" si="8"/>
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1972,28 +2282,35 @@
       <c r="E39" s="2">
         <v>4.1622000000000003</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="34"/>
+      <c r="F39" s="4">
+        <v>4361</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="45"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="1"/>
         <v>1.0024999999999999</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="5"/>
+      <c r="L39">
+        <f t="shared" si="6"/>
         <v>2.8999999999999997E-5</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f t="shared" si="3"/>
         <v>1.0000290000000001</v>
       </c>
-      <c r="O39" s="2">
-        <f t="shared" si="6"/>
+      <c r="P39" s="2">
+        <f t="shared" si="7"/>
         <v>4.1622000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S39" s="2">
+        <f t="shared" si="8"/>
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -2009,40 +2326,51 @@
       <c r="E40" s="2">
         <v>4.3163</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="34"/>
+      <c r="F40" s="4">
+        <v>4338</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="45"/>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="1"/>
         <v>1.0006999999999999</v>
       </c>
-      <c r="I40">
-        <f t="shared" ref="I40" si="41">(H38*H39*H40)-1</f>
+      <c r="J40">
+        <f t="shared" ref="J40" si="54">(I38*I39*I40)-1</f>
         <v>5.3084736749999806E-3</v>
       </c>
-      <c r="K40">
-        <f t="shared" si="5"/>
+      <c r="L40">
+        <f t="shared" si="6"/>
         <v>3.4E-5</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <f t="shared" si="3"/>
         <v>1.0000340000000001</v>
       </c>
-      <c r="M40">
-        <f t="shared" ref="M40" si="42">(L38*L39*L40)-1</f>
+      <c r="N40">
+        <f t="shared" ref="N40" si="55">(M38*M39*M40)-1</f>
         <v>1.0100338003771192E-4</v>
       </c>
-      <c r="O40" s="2">
-        <f t="shared" si="6"/>
+      <c r="P40" s="2">
+        <f t="shared" si="7"/>
         <v>4.3163</v>
       </c>
-      <c r="P40" s="2">
-        <f t="shared" ref="P40" si="43">AVERAGE(O38:O40)</f>
+      <c r="Q40" s="2">
+        <f t="shared" ref="Q40" si="56">AVERAGE(P38:P40)</f>
         <v>4.191133333333334</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S40" s="2">
+        <f t="shared" si="8"/>
+        <v>4338</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" ref="T40" si="57">AVERAGE(S38:S40)</f>
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -2058,28 +2386,35 @@
       <c r="E41" s="2">
         <v>4.7362000000000002</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="34"/>
+      <c r="F41" s="4">
+        <v>4153</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="45"/>
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="1"/>
         <v>0.99690000000000001</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="5"/>
+      <c r="L41">
+        <f t="shared" si="6"/>
         <v>2.8E-5</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <f t="shared" si="3"/>
         <v>1.0000279999999999</v>
       </c>
-      <c r="O41" s="2">
-        <f t="shared" si="6"/>
+      <c r="P41" s="2">
+        <f t="shared" si="7"/>
         <v>4.7362000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S41" s="2">
+        <f t="shared" si="8"/>
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -2095,28 +2430,35 @@
       <c r="E42" s="2">
         <v>5.2579000000000002</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="34"/>
+      <c r="F42" s="4">
+        <v>3989</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="45"/>
         <v>-3.8E-3</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f t="shared" si="1"/>
         <v>0.99619999999999997</v>
       </c>
-      <c r="K42">
-        <f t="shared" si="5"/>
+      <c r="L42">
+        <f t="shared" si="6"/>
         <v>2.3999999999999997E-5</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <f t="shared" si="3"/>
         <v>1.000024</v>
       </c>
-      <c r="O42" s="2">
-        <f t="shared" si="6"/>
+      <c r="P42" s="2">
+        <f t="shared" si="7"/>
         <v>5.2579000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S42" s="2">
+        <f t="shared" si="8"/>
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -2132,40 +2474,51 @@
       <c r="E43" s="2">
         <v>5.8228999999999997</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="34"/>
+      <c r="F43" s="4">
+        <v>3885</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="45"/>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <f t="shared" si="1"/>
         <v>1.0025999999999999</v>
       </c>
-      <c r="I43">
-        <f t="shared" ref="I43" si="44">(H41*H42*H43)-1</f>
+      <c r="J43">
+        <f t="shared" ref="J43" si="58">(I41*I42*I43)-1</f>
         <v>-4.3061293720000338E-3</v>
       </c>
-      <c r="K43">
-        <f t="shared" si="5"/>
+      <c r="L43">
+        <f t="shared" si="6"/>
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <f t="shared" si="3"/>
         <v>1.000021</v>
       </c>
-      <c r="M43">
-        <f t="shared" ref="M43" si="45">(L41*L42*L43)-1</f>
+      <c r="N43">
+        <f t="shared" ref="N43" si="59">(M41*M42*M43)-1</f>
         <v>7.3001764014035686E-5</v>
       </c>
-      <c r="O43" s="2">
-        <f t="shared" si="6"/>
+      <c r="P43" s="2">
+        <f t="shared" si="7"/>
         <v>5.8228999999999997</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" ref="P43" si="46">AVERAGE(O41:O43)</f>
+      <c r="Q43" s="2">
+        <f t="shared" ref="Q43" si="60">AVERAGE(P41:P43)</f>
         <v>5.2723333333333331</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S43" s="2">
+        <f t="shared" si="8"/>
+        <v>3885</v>
+      </c>
+      <c r="T43" s="2">
+        <f t="shared" ref="T43" si="61">AVERAGE(S41:S43)</f>
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -2181,28 +2534,35 @@
       <c r="E44" s="2">
         <v>5.1882999999999999</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="34"/>
+      <c r="F44" s="4">
+        <v>3872</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="45"/>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <f t="shared" si="1"/>
         <v>1.0036</v>
       </c>
-      <c r="K44">
-        <f t="shared" si="5"/>
+      <c r="L44">
+        <f t="shared" si="6"/>
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <f t="shared" si="3"/>
         <v>1.000019</v>
       </c>
-      <c r="O44" s="2">
-        <f t="shared" si="6"/>
+      <c r="P44" s="2">
+        <f t="shared" si="7"/>
         <v>5.1882999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S44" s="2">
+        <f t="shared" si="8"/>
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -2218,28 +2578,35 @@
       <c r="E45" s="2">
         <v>5.3491</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="34"/>
+      <c r="F45" s="4">
+        <v>3841</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="45"/>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <f t="shared" si="1"/>
         <v>1.0024</v>
       </c>
-      <c r="K45">
-        <f t="shared" si="5"/>
+      <c r="L45">
+        <f t="shared" si="6"/>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <f t="shared" si="3"/>
         <v>1.000016</v>
       </c>
-      <c r="O45" s="2">
-        <f t="shared" si="6"/>
+      <c r="P45" s="2">
+        <f t="shared" si="7"/>
         <v>5.3491</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S45" s="2">
+        <f t="shared" si="8"/>
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -2255,40 +2622,51 @@
       <c r="E46" s="2">
         <v>5.3852000000000002</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="34"/>
+      <c r="F46" s="4">
+        <v>3798</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="45"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="1"/>
         <v>1.0064</v>
       </c>
-      <c r="I46">
-        <f t="shared" ref="I46" si="47">(H44*H45*H46)-1</f>
+      <c r="J46">
+        <f t="shared" ref="J46" si="62">(I44*I45*I46)-1</f>
         <v>1.2447095295999855E-2</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="5"/>
+      <c r="L46">
+        <f t="shared" si="6"/>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <f t="shared" si="3"/>
         <v>1.000016</v>
       </c>
-      <c r="M46">
-        <f t="shared" ref="M46" si="48">(L44*L45*L46)-1</f>
+      <c r="N46">
+        <f t="shared" ref="N46" si="63">(M44*M45*M46)-1</f>
         <v>5.10008640048909E-5</v>
       </c>
-      <c r="O46" s="2">
-        <f t="shared" si="6"/>
+      <c r="P46" s="2">
+        <f t="shared" si="7"/>
         <v>5.3852000000000002</v>
       </c>
-      <c r="P46" s="2">
-        <f t="shared" ref="P46" si="49">AVERAGE(O44:O46)</f>
+      <c r="Q46" s="2">
+        <f t="shared" ref="Q46" si="64">AVERAGE(P44:P46)</f>
         <v>5.3075333333333328</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S46" s="2">
+        <f t="shared" si="8"/>
+        <v>3798</v>
+      </c>
+      <c r="T46" s="2">
+        <f t="shared" ref="T46" si="65">AVERAGE(S44:S46)</f>
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -2304,28 +2682,35 @@
       <c r="E47" s="2">
         <v>5.2728000000000002</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="34"/>
+      <c r="F47" s="4">
+        <v>3818</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="45"/>
         <v>8.6E-3</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f t="shared" si="1"/>
         <v>1.0085999999999999</v>
       </c>
-      <c r="K47">
-        <f t="shared" si="5"/>
+      <c r="L47">
+        <f t="shared" si="6"/>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <f t="shared" si="3"/>
         <v>1.000016</v>
       </c>
-      <c r="O47" s="2">
-        <f t="shared" si="6"/>
+      <c r="P47" s="2">
+        <f t="shared" si="7"/>
         <v>5.2728000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S47" s="2">
+        <f t="shared" si="8"/>
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -2341,28 +2726,35 @@
       <c r="E48" s="2">
         <v>5.6172000000000004</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="34"/>
+      <c r="F48" s="4">
+        <v>3856</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="45"/>
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <f t="shared" si="1"/>
         <v>1.0088999999999999</v>
       </c>
-      <c r="K48">
-        <f t="shared" si="5"/>
+      <c r="L48">
+        <f t="shared" si="6"/>
         <v>1.5E-5</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <f t="shared" si="3"/>
         <v>1.0000150000000001</v>
       </c>
-      <c r="O48" s="2">
-        <f t="shared" si="6"/>
+      <c r="P48" s="2">
+        <f t="shared" si="7"/>
         <v>5.6172000000000004</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S48" s="2">
+        <f t="shared" si="8"/>
+        <v>3856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -2378,40 +2770,51 @@
       <c r="E49" s="2">
         <v>5.4854000000000003</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="34"/>
+      <c r="F49" s="4">
+        <v>3848</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="45"/>
         <v>1.3500000000000002E-2</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <f t="shared" si="1"/>
         <v>1.0135000000000001</v>
       </c>
-      <c r="I49">
-        <f t="shared" ref="I49" si="50">(H47*H48*H49)-1</f>
+      <c r="J49">
+        <f t="shared" ref="J49" si="66">(I47*I48*I49)-1</f>
         <v>3.1313823289999876E-2</v>
       </c>
-      <c r="K49">
-        <f t="shared" si="5"/>
+      <c r="L49">
+        <f t="shared" si="6"/>
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <f t="shared" si="3"/>
         <v>1.000016</v>
       </c>
-      <c r="M49">
-        <f t="shared" ref="M49" si="51">(L47*L48*L49)-1</f>
+      <c r="N49">
+        <f t="shared" ref="N49" si="67">(M47*M48*M49)-1</f>
         <v>4.7000736004054744E-5</v>
       </c>
-      <c r="O49" s="2">
-        <f t="shared" si="6"/>
+      <c r="P49" s="2">
+        <f t="shared" si="7"/>
         <v>5.4854000000000003</v>
       </c>
-      <c r="P49" s="2">
-        <f t="shared" ref="P49" si="52">AVERAGE(O47:O49)</f>
+      <c r="Q49" s="2">
+        <f t="shared" ref="Q49" si="68">AVERAGE(P47:P49)</f>
         <v>5.4584666666666664</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S49" s="2">
+        <f t="shared" si="8"/>
+        <v>3848</v>
+      </c>
+      <c r="T49" s="2">
+        <f t="shared" ref="T49" si="69">AVERAGE(S47:S49)</f>
+        <v>3840.6666666666665</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -2427,28 +2830,35 @@
       <c r="E50" s="2">
         <v>5.0968</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="34"/>
+      <c r="F50" s="4">
+        <v>3801</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="45"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f t="shared" si="1"/>
         <v>1.0024999999999999</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="5"/>
+      <c r="L50">
+        <f t="shared" si="6"/>
         <v>1.5E-5</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <f t="shared" si="3"/>
         <v>1.0000150000000001</v>
       </c>
-      <c r="O50" s="2">
-        <f t="shared" si="6"/>
+      <c r="P50" s="2">
+        <f t="shared" si="7"/>
         <v>5.0968</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S50" s="2">
+        <f t="shared" si="8"/>
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -2464,28 +2874,35 @@
       <c r="E51" s="2">
         <v>5.2713999999999999</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="34"/>
+      <c r="F51" s="4">
+        <v>3782</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="45"/>
         <v>8.6E-3</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <f t="shared" si="1"/>
         <v>1.0085999999999999</v>
       </c>
-      <c r="K51">
-        <f t="shared" si="5"/>
+      <c r="L51">
+        <f t="shared" si="6"/>
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <f t="shared" si="3"/>
         <v>1.000013</v>
       </c>
-      <c r="O51" s="2">
-        <f t="shared" si="6"/>
+      <c r="P51" s="2">
+        <f t="shared" si="7"/>
         <v>5.2713999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S51" s="2">
+        <f t="shared" si="8"/>
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -2501,40 +2918,51 @@
       <c r="E52" s="2">
         <v>5.3815</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="34"/>
+      <c r="F52" s="4">
+        <v>3697</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="45"/>
         <v>9.300000000000001E-3</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f t="shared" si="1"/>
         <v>1.0093000000000001</v>
       </c>
-      <c r="I52">
-        <f t="shared" ref="I52" si="53">(H50*H51*H52)-1</f>
+      <c r="J52">
+        <f t="shared" ref="J52" si="70">(I50*I51*I52)-1</f>
         <v>2.0524929949999882E-2</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="5"/>
+      <c r="L52">
+        <f t="shared" si="6"/>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <f t="shared" si="3"/>
         <v>1.0000199999999999</v>
       </c>
-      <c r="M52">
-        <f t="shared" ref="M52" si="54">(L50*L51*L52)-1</f>
+      <c r="N52">
+        <f t="shared" ref="N52" si="71">(M50*M51*M52)-1</f>
         <v>4.8000755003885232E-5</v>
       </c>
-      <c r="O52" s="2">
-        <f t="shared" si="6"/>
+      <c r="P52" s="2">
+        <f t="shared" si="7"/>
         <v>5.3815</v>
       </c>
-      <c r="P52" s="2">
-        <f t="shared" ref="P52" si="55">AVERAGE(O50:O52)</f>
+      <c r="Q52" s="2">
+        <f t="shared" ref="Q52" si="72">AVERAGE(P50:P52)</f>
         <v>5.2499000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S52" s="2">
+        <f t="shared" si="8"/>
+        <v>3697</v>
+      </c>
+      <c r="T52" s="2">
+        <f t="shared" ref="T52" si="73">AVERAGE(S50:S52)</f>
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -2550,28 +2978,35 @@
       <c r="E53" s="2">
         <v>5.6295999999999999</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="34"/>
+      <c r="F53" s="4">
+        <v>3704</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="45"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f t="shared" si="1"/>
         <v>1.0031000000000001</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="5"/>
+      <c r="L53">
+        <f t="shared" si="6"/>
         <v>2.0999999999999999E-5</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <f t="shared" si="3"/>
         <v>1.000021</v>
       </c>
-      <c r="O53" s="2">
-        <f t="shared" si="6"/>
+      <c r="P53" s="2">
+        <f t="shared" si="7"/>
         <v>5.6295999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S53" s="2">
+        <f t="shared" si="8"/>
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -2587,28 +3022,35 @@
       <c r="E54" s="2">
         <v>5.6234000000000002</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="34"/>
+      <c r="F54" s="4">
+        <v>3646</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="45"/>
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="1"/>
         <v>1.0083</v>
       </c>
-      <c r="K54">
-        <f t="shared" si="5"/>
+      <c r="L54">
+        <f t="shared" si="6"/>
         <v>2.7000000000000002E-5</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <f t="shared" si="3"/>
         <v>1.000027</v>
       </c>
-      <c r="O54" s="2">
-        <f t="shared" si="6"/>
+      <c r="P54" s="2">
+        <f t="shared" si="7"/>
         <v>5.6234000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S54" s="2">
+        <f t="shared" si="8"/>
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -2624,40 +3066,51 @@
       <c r="E55" s="2">
         <v>5.2701000000000002</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="34"/>
+      <c r="F55" s="4">
+        <v>3719</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="45"/>
         <v>5.3E-3</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <f t="shared" si="1"/>
         <v>1.0053000000000001</v>
       </c>
-      <c r="I55">
-        <f t="shared" ref="I55" si="56">(H53*H54*H55)-1</f>
+      <c r="J55">
+        <f t="shared" ref="J55" si="74">(I53*I54*I55)-1</f>
         <v>1.6786286369000036E-2</v>
       </c>
-      <c r="K55">
-        <f t="shared" si="5"/>
+      <c r="L55">
+        <f t="shared" si="6"/>
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <f t="shared" si="3"/>
         <v>1.0000309999999999</v>
       </c>
-      <c r="M55">
-        <f t="shared" ref="M55" si="57">(L53*L54*L55)-1</f>
+      <c r="N55">
+        <f t="shared" ref="N55" si="75">(M53*M54*M55)-1</f>
         <v>7.900205501742974E-5</v>
       </c>
-      <c r="O55" s="2">
-        <f t="shared" si="6"/>
+      <c r="P55" s="2">
+        <f t="shared" si="7"/>
         <v>5.2701000000000002</v>
       </c>
-      <c r="P55" s="2">
-        <f t="shared" ref="P55" si="58">AVERAGE(O53:O55)</f>
+      <c r="Q55" s="2">
+        <f t="shared" ref="Q55" si="76">AVERAGE(P53:P55)</f>
         <v>5.5076999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S55" s="2">
+        <f t="shared" si="8"/>
+        <v>3719</v>
+      </c>
+      <c r="T55" s="2">
+        <f t="shared" ref="T55" si="77">AVERAGE(S53:S55)</f>
+        <v>3689.6666666666665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -2673,28 +3126,35 @@
       <c r="E56" s="2">
         <v>5.0873999999999997</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="34"/>
+      <c r="F56" s="4">
+        <v>3683</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="45"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <f t="shared" si="1"/>
         <v>1.0096000000000001</v>
       </c>
-      <c r="K56">
-        <f t="shared" si="5"/>
+      <c r="L56">
+        <f t="shared" si="6"/>
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <f t="shared" si="3"/>
         <v>1.0000359999999999</v>
       </c>
-      <c r="O56" s="2">
-        <f t="shared" si="6"/>
+      <c r="P56" s="2">
+        <f t="shared" si="7"/>
         <v>5.0873999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S56" s="2">
+        <f t="shared" si="8"/>
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -2710,28 +3170,35 @@
       <c r="E57" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="34"/>
+      <c r="F57" s="4">
+        <v>3739</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="45"/>
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <f t="shared" si="1"/>
         <v>1.0086999999999999</v>
       </c>
-      <c r="K57">
-        <f t="shared" si="5"/>
+      <c r="L57">
+        <f t="shared" si="6"/>
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <f t="shared" si="3"/>
         <v>1.000043</v>
       </c>
-      <c r="O57" s="2">
-        <f t="shared" si="6"/>
+      <c r="P57" s="2">
+        <f t="shared" si="7"/>
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S57" s="2">
+        <f t="shared" si="8"/>
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -2747,40 +3214,51 @@
       <c r="E58" s="2">
         <v>5.2473999999999998</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="34"/>
+      <c r="F58" s="4">
+        <v>3802</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="45"/>
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <f t="shared" si="1"/>
         <v>1.0116000000000001</v>
       </c>
-      <c r="I58">
-        <f t="shared" ref="I58" si="59">(H56*H57*H58)-1</f>
+      <c r="J58">
+        <f t="shared" ref="J58" si="78">(I56*I57*I58)-1</f>
         <v>3.0196768831999954E-2</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="5"/>
+      <c r="L58">
+        <f t="shared" si="6"/>
         <v>4.4000000000000006E-5</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <f t="shared" si="3"/>
         <v>1.0000439999999999</v>
       </c>
-      <c r="M58">
-        <f t="shared" ref="M58" si="60">(L56*L57*L58)-1</f>
+      <c r="N58">
+        <f t="shared" ref="N58" si="79">(M56*M57*M58)-1</f>
         <v>1.2300502406792369E-4</v>
       </c>
-      <c r="O58" s="2">
-        <f t="shared" si="6"/>
+      <c r="P58" s="2">
+        <f t="shared" si="7"/>
         <v>5.2473999999999998</v>
       </c>
-      <c r="P58" s="2">
-        <f t="shared" ref="P58" si="61">AVERAGE(O56:O58)</f>
+      <c r="Q58" s="2">
+        <f t="shared" ref="Q58" si="80">AVERAGE(P56:P58)</f>
         <v>5.1449333333333334</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S58" s="2">
+        <f t="shared" si="8"/>
+        <v>3802</v>
+      </c>
+      <c r="T58" s="2">
+        <f t="shared" ref="T58" si="81">AVERAGE(S56:S58)</f>
+        <v>3741.3333333333335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -2796,28 +3274,35 @@
       <c r="E59" s="2">
         <v>5.2576000000000001</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="34"/>
+      <c r="F59" s="4">
+        <v>3859</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="45"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <f t="shared" si="1"/>
         <v>1.0125</v>
       </c>
-      <c r="K59">
-        <f t="shared" si="5"/>
+      <c r="L59">
+        <f t="shared" si="6"/>
         <v>4.8999999999999998E-5</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <f t="shared" si="3"/>
         <v>1.000049</v>
       </c>
-      <c r="O59" s="2">
-        <f t="shared" si="6"/>
+      <c r="P59" s="2">
+        <f t="shared" si="7"/>
         <v>5.2576000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S59" s="2">
+        <f t="shared" si="8"/>
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -2833,28 +3318,35 @@
       <c r="E60" s="2">
         <v>5.4509999999999996</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="34"/>
+      <c r="F60" s="4">
+        <v>3866</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="45"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <f t="shared" si="1"/>
         <v>1.0095000000000001</v>
       </c>
-      <c r="K60">
-        <f t="shared" si="5"/>
+      <c r="L60">
+        <f t="shared" si="6"/>
         <v>5.8999999999999998E-5</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <f t="shared" si="3"/>
         <v>1.000059</v>
       </c>
-      <c r="O60" s="2">
-        <f t="shared" si="6"/>
+      <c r="P60" s="2">
+        <f t="shared" si="7"/>
         <v>5.4509999999999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S60" s="2">
+        <f t="shared" si="8"/>
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -2870,40 +3362,51 @@
       <c r="E61" s="2">
         <v>5.4199000000000002</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="34"/>
+      <c r="F61" s="4">
+        <v>3874</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="45"/>
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <f t="shared" si="1"/>
         <v>1.0073000000000001</v>
       </c>
-      <c r="I61">
-        <f t="shared" ref="I61" si="62">(H59*H60*H61)-1</f>
+      <c r="J61">
+        <f t="shared" ref="J61" si="82">(I59*I60*I61)-1</f>
         <v>2.958021687500012E-2</v>
       </c>
-      <c r="K61">
-        <f t="shared" si="5"/>
+      <c r="L61">
+        <f t="shared" si="6"/>
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <f t="shared" si="3"/>
         <v>1.0000770000000001</v>
       </c>
-      <c r="M61">
-        <f t="shared" ref="M61" si="63">(L59*L60*L61)-1</f>
+      <c r="N61">
+        <f t="shared" ref="N61" si="83">(M59*M60*M61)-1</f>
         <v>1.8501120722280717E-4</v>
       </c>
-      <c r="O61" s="2">
-        <f t="shared" si="6"/>
+      <c r="P61" s="2">
+        <f t="shared" si="7"/>
         <v>5.4199000000000002</v>
       </c>
-      <c r="P61" s="2">
-        <f t="shared" ref="P61" si="64">AVERAGE(O59:O61)</f>
+      <c r="Q61" s="2">
+        <f t="shared" ref="Q61" si="84">AVERAGE(P59:P61)</f>
         <v>5.3761666666666672</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S61" s="2">
+        <f t="shared" si="8"/>
+        <v>3874</v>
+      </c>
+      <c r="T61" s="2">
+        <f t="shared" ref="T61" si="85">AVERAGE(S59:S61)</f>
+        <v>3866.3333333333335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2022</v>
       </c>
@@ -2919,28 +3422,35 @@
       <c r="E62" s="2">
         <v>5.7126999999999999</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="34"/>
+      <c r="F62" s="4">
+        <v>4008</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="45"/>
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <f t="shared" si="1"/>
         <v>1.0054000000000001</v>
       </c>
-      <c r="K62">
-        <f t="shared" si="5"/>
+      <c r="L62">
+        <f t="shared" si="6"/>
         <v>7.2999999999999999E-5</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <f t="shared" si="3"/>
         <v>1.000073</v>
       </c>
-      <c r="O62" s="2">
-        <f t="shared" si="6"/>
+      <c r="P62" s="2">
+        <f t="shared" si="7"/>
         <v>5.7126999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S62" s="2">
+        <f t="shared" si="8"/>
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2022</v>
       </c>
@@ -2956,28 +3466,35 @@
       <c r="E63" s="2">
         <v>5.5349000000000004</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="34"/>
+      <c r="F63" s="4">
+        <v>4068</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="45"/>
         <v>1.01E-2</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <f t="shared" si="1"/>
         <v>1.0101</v>
       </c>
-      <c r="K63">
-        <f t="shared" si="5"/>
+      <c r="L63">
+        <f t="shared" si="6"/>
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <f t="shared" si="3"/>
         <v>1.000076</v>
       </c>
-      <c r="O63" s="2">
-        <f t="shared" si="6"/>
+      <c r="P63" s="2">
+        <f t="shared" si="7"/>
         <v>5.5349000000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S63" s="2">
+        <f t="shared" si="8"/>
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2022</v>
       </c>
@@ -2993,40 +3510,51 @@
       <c r="E64" s="2">
         <v>5.1881000000000004</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="34"/>
+      <c r="F64" s="4">
+        <v>4096</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="45"/>
         <v>1.6200000000000003E-2</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <f t="shared" si="1"/>
         <v>1.0162</v>
       </c>
-      <c r="I64">
-        <f t="shared" ref="I64" si="65">(H62*H63*H64)-1</f>
+      <c r="J64">
+        <f t="shared" ref="J64" si="86">(I62*I63*I64)-1</f>
         <v>3.2006523548000043E-2</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="5"/>
+      <c r="L64">
+        <f t="shared" si="6"/>
         <v>9.2999999999999997E-5</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <f t="shared" si="3"/>
         <v>1.0000929999999999</v>
       </c>
-      <c r="M64">
-        <f t="shared" ref="M64" si="66">(L62*L63*L64)-1</f>
+      <c r="N64">
+        <f t="shared" ref="N64" si="87">(M62*M63*M64)-1</f>
         <v>2.4201940551593637E-4</v>
       </c>
-      <c r="O64" s="2">
-        <f t="shared" si="6"/>
+      <c r="P64" s="2">
+        <f t="shared" si="7"/>
         <v>5.1881000000000004</v>
       </c>
-      <c r="P64" s="2">
-        <f t="shared" ref="P64" si="67">AVERAGE(O62:O64)</f>
+      <c r="Q64" s="2">
+        <f t="shared" ref="Q64" si="88">AVERAGE(P62:P64)</f>
         <v>5.4785666666666666</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S64" s="2">
+        <f t="shared" si="8"/>
+        <v>4096</v>
+      </c>
+      <c r="T64" s="2">
+        <f t="shared" ref="T64" si="89">AVERAGE(S62:S64)</f>
+        <v>4057.3333333333335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2022</v>
       </c>
@@ -3042,28 +3570,35 @@
       <c r="E65" s="2">
         <v>5.1314000000000002</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="34"/>
+      <c r="F65" s="4">
+        <v>4118</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="45"/>
         <v>1.06E-2</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <f t="shared" si="1"/>
         <v>1.0105999999999999</v>
       </c>
-      <c r="K65">
-        <f t="shared" si="5"/>
+      <c r="L65">
+        <f t="shared" si="6"/>
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <f t="shared" si="3"/>
         <v>1.0000830000000001</v>
       </c>
-      <c r="O65" s="2">
-        <f t="shared" si="6"/>
+      <c r="P65" s="2">
+        <f t="shared" si="7"/>
         <v>5.1314000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S65" s="2">
+        <f t="shared" si="8"/>
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2022</v>
       </c>
@@ -3079,28 +3614,35 @@
       <c r="E66" s="2">
         <v>4.7157999999999998</v>
       </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G73" si="68">C66/100</f>
+      <c r="F66" s="4">
+        <v>4236</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ref="H66:H73" si="90">C66/100</f>
         <v>4.6999999999999993E-3</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <f t="shared" si="1"/>
         <v>1.0046999999999999</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="5"/>
+      <c r="L66">
+        <f t="shared" si="6"/>
         <v>1.03E-4</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <f t="shared" si="3"/>
         <v>1.000103</v>
       </c>
-      <c r="O66" s="2">
-        <f t="shared" si="6"/>
+      <c r="P66" s="2">
+        <f t="shared" si="7"/>
         <v>4.7157999999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S66" s="2">
+        <f t="shared" si="8"/>
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2022</v>
       </c>
@@ -3116,40 +3658,51 @@
       <c r="E67" s="2">
         <v>5.1074999999999999</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="68"/>
+      <c r="F67" s="4">
+        <v>4237</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="90"/>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H73" si="69">1+G67</f>
+      <c r="I67">
+        <f t="shared" ref="I67:I73" si="91">1+H67</f>
         <v>1.0066999999999999</v>
       </c>
-      <c r="I67">
-        <f t="shared" ref="I67" si="70">(H65*H66*H67)-1</f>
+      <c r="J67">
+        <f t="shared" ref="J67" si="92">(I65*I66*I67)-1</f>
         <v>2.2152663793999938E-2</v>
       </c>
-      <c r="K67">
-        <f t="shared" si="5"/>
+      <c r="L67">
+        <f t="shared" si="6"/>
         <v>1.0200000000000001E-4</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L73" si="71">1+K67</f>
+      <c r="M67">
+        <f t="shared" ref="M67:M73" si="93">1+L67</f>
         <v>1.000102</v>
       </c>
-      <c r="M67">
-        <f t="shared" ref="M67" si="72">(L65*L66*L67)-1</f>
+      <c r="N67">
+        <f t="shared" ref="N67" si="94">(M65*M66*M67)-1</f>
         <v>2.8802752187195857E-4</v>
       </c>
-      <c r="O67" s="2">
-        <f t="shared" si="6"/>
+      <c r="P67" s="2">
+        <f t="shared" si="7"/>
         <v>5.1074999999999999</v>
       </c>
-      <c r="P67" s="2">
-        <f t="shared" ref="P67" si="73">AVERAGE(O65:O67)</f>
+      <c r="Q67" s="2">
+        <f t="shared" ref="Q67" si="95">AVERAGE(P65:P67)</f>
         <v>4.9849000000000006</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S67" s="2">
+        <f t="shared" si="8"/>
+        <v>4237</v>
+      </c>
+      <c r="T67" s="2">
+        <f t="shared" ref="T67" si="96">AVERAGE(S65:S67)</f>
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2022</v>
       </c>
@@ -3165,28 +3718,35 @@
       <c r="E68" s="2">
         <v>5.1119000000000003</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="68"/>
+      <c r="F68" s="4">
+        <v>4280</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="90"/>
         <v>-6.8000000000000005E-3</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="69"/>
+      <c r="I68">
+        <f t="shared" si="91"/>
         <v>0.99319999999999997</v>
       </c>
-      <c r="K68">
-        <f t="shared" si="5"/>
+      <c r="L68">
+        <f t="shared" si="6"/>
         <v>1.03E-4</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="71"/>
+      <c r="M68">
+        <f t="shared" si="93"/>
         <v>1.000103</v>
       </c>
-      <c r="O68" s="2">
-        <f t="shared" si="6"/>
+      <c r="P68" s="2">
+        <f t="shared" si="7"/>
         <v>5.1119000000000003</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S68" s="2">
+        <f t="shared" si="8"/>
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2022</v>
       </c>
@@ -3200,28 +3760,35 @@
       <c r="E69" s="2">
         <v>5.4013999999999998</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="68"/>
+      <c r="F69" s="4">
+        <v>4304</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="69"/>
+      <c r="I69">
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="5"/>
+      <c r="L69">
+        <f t="shared" si="6"/>
         <v>1.17E-4</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="71"/>
+      <c r="M69">
+        <f t="shared" si="93"/>
         <v>1.0001169999999999</v>
       </c>
-      <c r="O69" s="2">
-        <f t="shared" si="6"/>
+      <c r="P69" s="2">
+        <f t="shared" si="7"/>
         <v>5.4013999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S69" s="2">
+        <f t="shared" si="8"/>
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2022</v>
       </c>
@@ -3235,40 +3802,49 @@
       <c r="E70" s="2">
         <v>5.0925000000000002</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="68"/>
+      <c r="F70" s="2"/>
+      <c r="H70">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="69"/>
+      <c r="I70">
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
-      <c r="I70">
-        <f t="shared" ref="I70" si="74">(H68*H69*H70)-1</f>
+      <c r="J70">
+        <f t="shared" ref="J70" si="97">(I68*I69*I70)-1</f>
         <v>-6.8000000000000282E-3</v>
       </c>
-      <c r="K70">
-        <f t="shared" ref="K70:K73" si="75">D70/100</f>
+      <c r="L70">
+        <f t="shared" ref="L70:L73" si="98">D70/100</f>
         <v>1.07E-4</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="71"/>
+      <c r="M70">
+        <f t="shared" si="93"/>
         <v>1.0001070000000001</v>
       </c>
-      <c r="M70">
-        <f t="shared" ref="M70" si="76">(L68*L69*L70)-1</f>
+      <c r="N70">
+        <f t="shared" ref="N70" si="99">(M68*M69*M70)-1</f>
         <v>3.2703559228930423E-4</v>
       </c>
-      <c r="O70" s="2">
-        <f t="shared" ref="O70:O73" si="77">E70</f>
+      <c r="P70" s="2">
+        <f t="shared" ref="P70:P73" si="100">E70</f>
         <v>5.0925000000000002</v>
       </c>
-      <c r="P70" s="2">
-        <f t="shared" ref="P70" si="78">AVERAGE(O68:O70)</f>
+      <c r="Q70" s="2">
+        <f t="shared" ref="Q70" si="101">AVERAGE(P68:P70)</f>
         <v>5.2019333333333337</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S70" s="2">
+        <f t="shared" ref="S70:S73" si="102">F70</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="2">
+        <f t="shared" ref="T70" si="103">AVERAGE(S68:S70)</f>
+        <v>2861.3333333333335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2022</v>
       </c>
@@ -3278,91 +3854,108 @@
       <c r="E71" s="2">
         <v>5.2210999999999999</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="68"/>
+      <c r="F71" s="2"/>
+      <c r="H71">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="69"/>
+      <c r="I71">
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
-      <c r="K71">
-        <f t="shared" si="75"/>
+      <c r="L71">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="L71">
-        <f t="shared" si="71"/>
+      <c r="M71">
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
-      <c r="O71" s="2">
-        <f t="shared" si="77"/>
+      <c r="P71" s="2">
+        <f t="shared" si="100"/>
         <v>5.2210999999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S71" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2022</v>
       </c>
       <c r="B72">
         <v>11</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="68"/>
+      <c r="H72">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="69"/>
+      <c r="I72">
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
-      <c r="K72">
-        <f t="shared" si="75"/>
+      <c r="L72">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="L72">
-        <f t="shared" si="71"/>
+      <c r="M72">
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
-      <c r="O72" s="2">
-        <f t="shared" si="77"/>
+      <c r="P72" s="2">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S72" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2022</v>
       </c>
       <c r="B73">
         <v>12</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="68"/>
+      <c r="H73">
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="H73">
-        <f t="shared" si="69"/>
+      <c r="I73">
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
-      <c r="I73">
-        <f t="shared" ref="I73" si="79">(H71*H72*H73)-1</f>
+      <c r="J73">
+        <f t="shared" ref="J73" si="104">(I71*I72*I73)-1</f>
         <v>0</v>
       </c>
-      <c r="K73">
-        <f t="shared" si="75"/>
+      <c r="L73">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="L73">
-        <f t="shared" si="71"/>
+      <c r="M73">
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
-      <c r="M73">
-        <f t="shared" ref="M73" si="80">(L71*L72*L73)-1</f>
+      <c r="N73">
+        <f t="shared" ref="N73" si="105">(M71*M72*M73)-1</f>
         <v>0</v>
       </c>
-      <c r="O73" s="2">
-        <f t="shared" si="77"/>
+      <c r="P73" s="2">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="P73" s="2">
+      <c r="Q73" s="2">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="T73" s="2">
+        <f t="shared" ref="T73" si="106">AVERAGE(S71:S73)</f>
         <v>0</v>
       </c>
     </row>
